--- a/Jogos_do_Dia/2023-04-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -635,34 +635,34 @@
         <v>1.57</v>
       </c>
       <c r="G2" t="n">
-        <v>3.45</v>
+        <v>4.04</v>
       </c>
       <c r="H2" t="n">
-        <v>5.22</v>
+        <v>5.9</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>2.11</v>
+        <v>1.95</v>
       </c>
       <c r="N2" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="Q2" t="n">
         <v>1.91</v>
@@ -671,13 +671,13 @@
         <v>1.91</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -695,28 +695,28 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AB2" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.26</v>
+        <v>3.54</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF2" t="n">
         <v>1.83</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="3">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
         <v>1.01</v>
@@ -986,7 +986,7 @@
         <v>1.67</v>
       </c>
       <c r="N5" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.41</v>
+        <v>2.67</v>
       </c>
       <c r="I6" t="n">
         <v>1.02</v>
@@ -1096,7 +1096,7 @@
         <v>1.83</v>
       </c>
       <c r="N6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O6" t="n">
         <v>1.39</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="G7" t="n">
-        <v>3.54</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>4.07</v>
+        <v>4.47</v>
       </c>
       <c r="I7" t="n">
         <v>1.04</v>
@@ -1203,10 +1203,10 @@
         <v>3.85</v>
       </c>
       <c r="M7" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="N7" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="O7" t="n">
         <v>1.38</v>
@@ -1295,10 +1295,10 @@
         <v>2.09</v>
       </c>
       <c r="G8" t="n">
-        <v>3.06</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.06</v>
+        <v>3.42</v>
       </c>
       <c r="I8" t="n">
         <v>1.05</v>
@@ -1313,10 +1313,10 @@
         <v>3.65</v>
       </c>
       <c r="M8" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="N8" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.38</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.19</v>
+        <v>2.35</v>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.99</v>
+        <v>2.83</v>
       </c>
       <c r="I9" t="n">
         <v>1.01</v>
@@ -1423,10 +1423,10 @@
         <v>3.72</v>
       </c>
       <c r="M9" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="N9" t="n">
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.74</v>
+        <v>2.85</v>
       </c>
       <c r="G10" t="n">
-        <v>3.02</v>
+        <v>3.35</v>
       </c>
       <c r="H10" t="n">
-        <v>2.21</v>
+        <v>2.4</v>
       </c>
       <c r="I10" t="n">
         <v>1.05</v>
@@ -1533,10 +1533,10 @@
         <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="N10" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.15</v>
+        <v>3.29</v>
       </c>
       <c r="I11" t="n">
         <v>1.04</v>
@@ -1643,10 +1643,10 @@
         <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="N11" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="O11" t="n">
         <v>1.38</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.6</v>
+        <v>3.08</v>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="H12" t="n">
-        <v>2.54</v>
+        <v>2.18</v>
       </c>
       <c r="I12" t="n">
         <v>1.04</v>
@@ -1753,10 +1753,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="N12" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="G13" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3.12</v>
       </c>
       <c r="I13" t="n">
         <v>1.03</v>
@@ -1863,10 +1863,10 @@
         <v>3.8</v>
       </c>
       <c r="M13" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="N13" t="n">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="O13" t="n">
         <v>1.37</v>
@@ -1890,10 +1890,10 @@
         <v>1.63</v>
       </c>
       <c r="V13" t="n">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="W13" t="n">
-        <v>0.82</v>
+        <v>1.13</v>
       </c>
       <c r="X13" t="n">
         <v>1.47</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="G14" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.85</v>
+        <v>3.94</v>
       </c>
       <c r="I14" t="n">
         <v>1.05</v>
@@ -1967,16 +1967,16 @@
         <v>8.75</v>
       </c>
       <c r="K14" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="L14" t="n">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="M14" t="n">
-        <v>2.55</v>
+        <v>2.09</v>
       </c>
       <c r="N14" t="n">
-        <v>1.45</v>
+        <v>1.74</v>
       </c>
       <c r="O14" t="n">
         <v>1.48</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="I15" t="n">
         <v>1.03</v>
@@ -2086,7 +2086,7 @@
         <v>1.8</v>
       </c>
       <c r="N15" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="O15" t="n">
         <v>1.35</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>3.16</v>
       </c>
       <c r="H16" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I16" t="n">
         <v>1.05</v>
@@ -2193,10 +2193,10 @@
         <v>2.75</v>
       </c>
       <c r="M16" t="n">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="N16" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O16" t="n">
         <v>1.51</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="G17" t="n">
-        <v>2.89</v>
+        <v>3.34</v>
       </c>
       <c r="H17" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="I17" t="n">
         <v>1.07</v>
@@ -2303,10 +2303,10 @@
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N17" t="n">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="O17" t="n">
         <v>1.4</v>
@@ -2392,10 +2392,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>3.42</v>
       </c>
       <c r="H18" t="n">
         <v>3.15</v>
@@ -2413,7 +2413,7 @@
         <v>3.25</v>
       </c>
       <c r="M18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
         <v>1.81</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.85</v>
+        <v>2.54</v>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>3.22</v>
       </c>
       <c r="H19" t="n">
-        <v>2.55</v>
+        <v>2.83</v>
       </c>
       <c r="I19" t="n">
         <v>1.07</v>
@@ -2523,10 +2523,10 @@
         <v>3.2</v>
       </c>
       <c r="M19" t="n">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="N19" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O19" t="n">
         <v>1.48</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.16</v>
+        <v>2.7</v>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="H20" t="n">
-        <v>3.35</v>
+        <v>2.7</v>
       </c>
       <c r="I20" t="n">
         <v>1.04</v>
@@ -2633,10 +2633,10 @@
         <v>2.79</v>
       </c>
       <c r="M20" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="N20" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="O20" t="n">
         <v>1.47</v>
@@ -2722,10 +2722,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="H21" t="n">
         <v>2.6</v>
@@ -2743,10 +2743,10 @@
         <v>3.25</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="N21" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O21" t="n">
         <v>1.45</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="G22" t="n">
-        <v>3.05</v>
+        <v>3.18</v>
       </c>
       <c r="H22" t="n">
-        <v>4.5</v>
+        <v>4.28</v>
       </c>
       <c r="I22" t="n">
         <v>1.1</v>
@@ -2847,16 +2847,16 @@
         <v>5.75</v>
       </c>
       <c r="K22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="L22" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M22" t="n">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="N22" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="O22" t="n">
         <v>1.53</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.52</v>
+        <v>2.59</v>
       </c>
       <c r="G23" t="n">
-        <v>3.05</v>
+        <v>3.28</v>
       </c>
       <c r="H23" t="n">
-        <v>2.66</v>
+        <v>2.73</v>
       </c>
       <c r="I23" t="n">
         <v>1.08</v>
@@ -2963,10 +2963,10 @@
         <v>2.8</v>
       </c>
       <c r="M23" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="N23" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="O23" t="n">
         <v>1.48</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>4.54</v>
       </c>
       <c r="I24" t="n">
         <v>1.04</v>
@@ -3073,10 +3073,10 @@
         <v>4.37</v>
       </c>
       <c r="M24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="N24" t="n">
-        <v>2.35</v>
+        <v>2.19</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -3100,10 +3100,10 @@
         <v>2.05</v>
       </c>
       <c r="V24" t="n">
-        <v>1.09</v>
+        <v>1.26</v>
       </c>
       <c r="W24" t="n">
-        <v>0.5</v>
+        <v>1.22</v>
       </c>
       <c r="X24" t="n">
         <v>1.83</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.99</v>
+        <v>2.56</v>
       </c>
       <c r="G25" t="n">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>2.77</v>
       </c>
       <c r="I25" t="n">
         <v>1.08</v>
@@ -3183,10 +3183,10 @@
         <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="N25" t="n">
-        <v>1.97</v>
+        <v>1.68</v>
       </c>
       <c r="O25" t="n">
         <v>1.44</v>
@@ -3272,19 +3272,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.85</v>
+        <v>2.41</v>
       </c>
       <c r="G26" t="n">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="H26" t="n">
-        <v>2.55</v>
+        <v>2.87</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -3293,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="N26" t="n">
         <v>1.87</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.75</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
@@ -3385,10 +3385,10 @@
         <v>1.7</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>4.29</v>
       </c>
       <c r="I27" t="n">
         <v>1.02</v>
@@ -3403,10 +3403,10 @@
         <v>5.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="N27" t="n">
-        <v>2.55</v>
+        <v>2.99</v>
       </c>
       <c r="O27" t="n">
         <v>1.24</v>
@@ -3430,10 +3430,10 @@
         <v>2.14</v>
       </c>
       <c r="V27" t="n">
-        <v>2.18</v>
+        <v>1.78</v>
       </c>
       <c r="W27" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="X27" t="n">
         <v>1.64</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="G28" t="n">
-        <v>3.11</v>
+        <v>3.34</v>
       </c>
       <c r="H28" t="n">
-        <v>3.06</v>
+        <v>3.16</v>
       </c>
       <c r="I28" t="n">
         <v>1.05</v>
@@ -3513,10 +3513,10 @@
         <v>3.42</v>
       </c>
       <c r="M28" t="n">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="N28" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="O28" t="n">
         <v>1.4</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="G29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H29" t="n">
         <v>3.3</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.9</v>
       </c>
       <c r="I29" t="n">
         <v>1.05</v>
@@ -3623,10 +3623,10 @@
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N29" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="O29" t="n">
         <v>1.45</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.4</v>
+        <v>3.92</v>
       </c>
       <c r="G30" t="n">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="H30" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="I30" t="n">
         <v>1.01</v>
@@ -3733,10 +3733,10 @@
         <v>3.4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="N30" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="O30" t="n">
         <v>1.41</v>
@@ -3822,52 +3822,52 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="G31" t="n">
-        <v>3.12</v>
+        <v>3.2</v>
       </c>
       <c r="H31" t="n">
-        <v>2.81</v>
+        <v>2.89</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="M31" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="N31" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V31" t="n">
         <v>1.64</v>
@@ -3885,28 +3885,28 @@
         <v>2.84</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="32">
@@ -3932,52 +3932,52 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.62</v>
+        <v>3.11</v>
       </c>
       <c r="G32" t="n">
-        <v>3.48</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="M32" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V32" t="n">
         <v>0.73</v>
@@ -3995,28 +3995,28 @@
         <v>3.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="33">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="G33" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="I33" t="n">
         <v>1.04</v>
@@ -4063,10 +4063,10 @@
         <v>3.6</v>
       </c>
       <c r="M33" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="N33" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
         <v>1.35</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="G34" t="n">
-        <v>4.42</v>
+        <v>4.2</v>
       </c>
       <c r="H34" t="n">
-        <v>5.32</v>
+        <v>5.5</v>
       </c>
       <c r="I34" t="n">
         <v>1.03</v>
@@ -4173,10 +4173,10 @@
         <v>4.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="N34" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="O34" t="n">
         <v>1.31</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="G35" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I35" t="n">
         <v>1.07</v>
@@ -4283,10 +4283,10 @@
         <v>2.9</v>
       </c>
       <c r="M35" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="N35" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="O35" t="n">
         <v>1.49</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="G37" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
-        <v>3.39</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
         <v>1.05</v>
@@ -4503,10 +4503,10 @@
         <v>3.52</v>
       </c>
       <c r="M37" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="N37" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="O37" t="n">
         <v>1.4</v>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="G38" t="n">
-        <v>3.51</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
-        <v>4.6</v>
+        <v>4.74</v>
       </c>
       <c r="I38" t="n">
         <v>1.04</v>
@@ -4613,10 +4613,10 @@
         <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>2.17</v>
+        <v>1.9</v>
       </c>
       <c r="N38" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="O38" t="n">
         <v>1.47</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G39" t="n">
         <v>3.25</v>
       </c>
       <c r="H39" t="n">
-        <v>4.78</v>
+        <v>4.26</v>
       </c>
       <c r="I39" t="n">
         <v>1.07</v>
@@ -4723,10 +4723,10 @@
         <v>2.6</v>
       </c>
       <c r="M39" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="N39" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="O39" t="n">
         <v>1.53</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>12.25</v>
+        <v>10.89</v>
       </c>
       <c r="G40" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="H40" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -4833,10 +4833,10 @@
         <v>6</v>
       </c>
       <c r="M40" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="N40" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="O40" t="n">
         <v>1.22</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="G41" t="n">
-        <v>4.67</v>
+        <v>4.6</v>
       </c>
       <c r="H41" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="I41" t="n">
         <v>1.01</v>
@@ -4943,10 +4943,10 @@
         <v>4.7</v>
       </c>
       <c r="M41" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="N41" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="O41" t="n">
         <v>1.29</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="G42" t="n">
-        <v>3.69</v>
+        <v>3.65</v>
       </c>
       <c r="H42" t="n">
-        <v>3.08</v>
+        <v>2.7</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -5053,10 +5053,10 @@
         <v>4.4</v>
       </c>
       <c r="M42" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="N42" t="n">
-        <v>2.24</v>
+        <v>2.29</v>
       </c>
       <c r="O42" t="n">
         <v>1.29</v>
@@ -5145,10 +5145,10 @@
         <v>1.63</v>
       </c>
       <c r="G43" t="n">
-        <v>4.11</v>
+        <v>4.05</v>
       </c>
       <c r="H43" t="n">
-        <v>5.21</v>
+        <v>4.89</v>
       </c>
       <c r="I43" t="n">
         <v>1.01</v>
@@ -5166,7 +5166,7 @@
         <v>1.84</v>
       </c>
       <c r="N43" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="O43" t="n">
         <v>1.35</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="G44" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="H44" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I44" t="n">
         <v>1.01</v>
@@ -5273,7 +5273,7 @@
         <v>6.2</v>
       </c>
       <c r="M44" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="N44" t="n">
         <v>3.04</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="G45" t="n">
-        <v>3.83</v>
+        <v>3.7</v>
       </c>
       <c r="H45" t="n">
-        <v>3.91</v>
+        <v>3.93</v>
       </c>
       <c r="I45" t="n">
         <v>1.04</v>
@@ -5383,10 +5383,10 @@
         <v>4.4</v>
       </c>
       <c r="M45" t="n">
-        <v>1.74</v>
+        <v>1.51</v>
       </c>
       <c r="N45" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="O45" t="n">
         <v>1.3</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="G46" t="n">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="H46" t="n">
-        <v>3.14</v>
+        <v>2.88</v>
       </c>
       <c r="I46" t="n">
         <v>1.01</v>
@@ -5493,10 +5493,10 @@
         <v>3.6</v>
       </c>
       <c r="M46" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="N46" t="n">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="O46" t="n">
         <v>1.37</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="G47" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H47" t="n">
-        <v>5.58</v>
+        <v>6.18</v>
       </c>
       <c r="I47" t="n">
         <v>1.05</v>
@@ -5603,10 +5603,10 @@
         <v>3.9</v>
       </c>
       <c r="M47" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O47" t="n">
         <v>1.3</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>3.83</v>
+        <v>3.8</v>
       </c>
       <c r="H48" t="n">
-        <v>3.54</v>
+        <v>3.55</v>
       </c>
       <c r="I48" t="n">
         <v>1.04</v>
@@ -5713,10 +5713,10 @@
         <v>4.05</v>
       </c>
       <c r="M48" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="N48" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O48" t="n">
         <v>1.32</v>
@@ -5800,52 +5800,52 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5863,28 +5863,28 @@
         <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="50">
@@ -5917,16 +5917,16 @@
         <v>3.82</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
@@ -5935,25 +5935,25 @@
         <v>1.82</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5971,28 +5971,28 @@
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="51">
@@ -6016,52 +6016,52 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -6124,52 +6124,52 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>4.07</v>
+        <v>4.02</v>
       </c>
       <c r="G52" t="n">
         <v>3.78</v>
       </c>
       <c r="H52" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="M52" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="N52" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -6187,28 +6187,28 @@
         <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="53">
@@ -6234,13 +6234,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="G53" t="n">
-        <v>3.37</v>
+        <v>3.35</v>
       </c>
       <c r="H53" t="n">
-        <v>3.45</v>
+        <v>3.51</v>
       </c>
       <c r="I53" t="n">
         <v>1.06</v>
@@ -6258,7 +6258,7 @@
         <v>1.95</v>
       </c>
       <c r="N53" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="O53" t="n">
         <v>1.4</v>
@@ -6344,13 +6344,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="G54" t="n">
-        <v>3.41</v>
+        <v>3.55</v>
       </c>
       <c r="H54" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="I54" t="n">
         <v>1.04</v>
@@ -6365,10 +6365,10 @@
         <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="N54" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="O54" t="n">
         <v>1.3</v>
@@ -6454,13 +6454,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="G55" t="n">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="H55" t="n">
-        <v>4.8</v>
+        <v>4.88</v>
       </c>
       <c r="I55" t="n">
         <v>1.07</v>
@@ -6475,7 +6475,7 @@
         <v>2.28</v>
       </c>
       <c r="M55" t="n">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="N55" t="n">
         <v>1.5</v>
@@ -6564,13 +6564,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="G56" t="n">
-        <v>3.37</v>
+        <v>3.45</v>
       </c>
       <c r="H56" t="n">
-        <v>2.72</v>
+        <v>2.61</v>
       </c>
       <c r="I56" t="n">
         <v>1.05</v>
@@ -6585,10 +6585,10 @@
         <v>3.6</v>
       </c>
       <c r="M56" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="N56" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="O56" t="n">
         <v>1.35</v>
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="G57" t="n">
-        <v>4.09</v>
+        <v>4.2</v>
       </c>
       <c r="H57" t="n">
-        <v>6.19</v>
+        <v>6.29</v>
       </c>
       <c r="I57" t="n">
         <v>1.03</v>
@@ -6695,10 +6695,10 @@
         <v>3.5</v>
       </c>
       <c r="M57" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="N57" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="O57" t="n">
         <v>1.36</v>
@@ -6784,52 +6784,52 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.96</v>
+        <v>2.91</v>
       </c>
       <c r="G58" t="n">
-        <v>3.51</v>
+        <v>3.4</v>
       </c>
       <c r="H58" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M58" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="N58" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V58" t="n">
         <v>1.14</v>
@@ -6847,28 +6847,28 @@
         <v>3.06</v>
       </c>
       <c r="AA58" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AB58" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
       </c>
       <c r="AE58" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF58" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG58" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH58" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="59">
@@ -6894,13 +6894,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="G59" t="n">
-        <v>4.43</v>
+        <v>4.3</v>
       </c>
       <c r="H59" t="n">
-        <v>5.45</v>
+        <v>5.3</v>
       </c>
       <c r="I59" t="n">
         <v>1.01</v>
@@ -6915,10 +6915,10 @@
         <v>4.7</v>
       </c>
       <c r="M59" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="N59" t="n">
-        <v>2.35</v>
+        <v>2.23</v>
       </c>
       <c r="O59" t="n">
         <v>1.28</v>
@@ -7004,13 +7004,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.65</v>
+        <v>2.94</v>
       </c>
       <c r="G60" t="n">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
       <c r="H60" t="n">
-        <v>2.69</v>
+        <v>2.3</v>
       </c>
       <c r="I60" t="n">
         <v>1.01</v>
@@ -7025,10 +7025,10 @@
         <v>3.64</v>
       </c>
       <c r="M60" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="N60" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O60" t="n">
         <v>1.36</v>
@@ -7114,13 +7114,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>10.55</v>
+        <v>9.01</v>
       </c>
       <c r="G61" t="n">
-        <v>6.53</v>
+        <v>6</v>
       </c>
       <c r="H61" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="I61" t="n">
         <v>1.01</v>
@@ -7135,10 +7135,10 @@
         <v>7.29</v>
       </c>
       <c r="M61" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="N61" t="n">
-        <v>2.66</v>
+        <v>3.27</v>
       </c>
       <c r="O61" t="n">
         <v>1.21</v>
@@ -7224,13 +7224,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="G62" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="H62" t="n">
-        <v>5.5</v>
+        <v>5.89</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -7245,10 +7245,10 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="N62" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -7334,13 +7334,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3.25</v>
+        <v>5.46</v>
       </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>4.05</v>
       </c>
       <c r="H63" t="n">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -7355,10 +7355,10 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -7444,13 +7444,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="H64" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="I64" t="n">
         <v>1.05</v>
@@ -7465,10 +7465,10 @@
         <v>3.6</v>
       </c>
       <c r="M64" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="N64" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O64" t="n">
         <v>1.33</v>
@@ -7554,13 +7554,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="G65" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H65" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I65" t="n">
         <v>1.02</v>
@@ -7575,7 +7575,7 @@
         <v>3.5</v>
       </c>
       <c r="M65" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="N65" t="n">
         <v>1.88</v>
@@ -7664,13 +7664,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="G66" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="H66" t="n">
-        <v>4.3</v>
+        <v>5.47</v>
       </c>
       <c r="I66" t="n">
         <v>1.02</v>
@@ -7685,10 +7685,10 @@
         <v>5.3</v>
       </c>
       <c r="M66" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="N66" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="O66" t="n">
         <v>1.24</v>
@@ -7774,13 +7774,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.79</v>
+        <v>2.7</v>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H67" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="I67" t="n">
         <v>1.05</v>
@@ -7795,10 +7795,10 @@
         <v>3.5</v>
       </c>
       <c r="M67" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="N67" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="O67" t="n">
         <v>1.35</v>
@@ -7884,13 +7884,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
       <c r="G68" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H68" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="I68" t="n">
         <v>1.02</v>
@@ -7905,10 +7905,10 @@
         <v>4.5</v>
       </c>
       <c r="M68" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="N68" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="O68" t="n">
         <v>1.28</v>
@@ -7994,13 +7994,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="G69" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H69" t="n">
-        <v>2.52</v>
+        <v>2.91</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -8015,10 +8015,10 @@
         <v>3.72</v>
       </c>
       <c r="M69" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="O69" t="n">
         <v>1.34</v>
@@ -8104,13 +8104,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.84</v>
+        <v>2.5</v>
       </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H70" t="n">
-        <v>2.11</v>
+        <v>2.4</v>
       </c>
       <c r="I70" t="n">
         <v>1.03</v>
@@ -8125,10 +8125,10 @@
         <v>5</v>
       </c>
       <c r="M70" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="N70" t="n">
-        <v>2.31</v>
+        <v>2.44</v>
       </c>
       <c r="O70" t="n">
         <v>1.25</v>
@@ -8214,13 +8214,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.94</v>
+        <v>1.76</v>
       </c>
       <c r="G71" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="H71" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="I71" t="n">
         <v>1.03</v>
@@ -8235,10 +8235,10 @@
         <v>4.15</v>
       </c>
       <c r="M71" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="N71" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="O71" t="n">
         <v>1.31</v>
@@ -8324,13 +8324,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="G72" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="H72" t="n">
-        <v>3.04</v>
+        <v>2.7</v>
       </c>
       <c r="I72" t="n">
         <v>1.05</v>
@@ -8345,10 +8345,10 @@
         <v>3.33</v>
       </c>
       <c r="M72" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="N72" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="O72" t="n">
         <v>1.37</v>
@@ -8434,13 +8434,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="G73" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H73" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="I73" t="n">
         <v>1.02</v>
@@ -8455,10 +8455,10 @@
         <v>4.75</v>
       </c>
       <c r="M73" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="N73" t="n">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="O73" t="n">
         <v>1.27</v>
@@ -8544,13 +8544,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4.15</v>
+        <v>5.93</v>
       </c>
       <c r="G74" t="n">
-        <v>3.65</v>
+        <v>4.25</v>
       </c>
       <c r="H74" t="n">
-        <v>1.92</v>
+        <v>1.56</v>
       </c>
       <c r="I74" t="n">
         <v>1.05</v>
@@ -8565,7 +8565,7 @@
         <v>3.7</v>
       </c>
       <c r="M74" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="N74" t="n">
         <v>1.98</v>
@@ -8654,13 +8654,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G75" t="n">
-        <v>4.42</v>
+        <v>4.3</v>
       </c>
       <c r="H75" t="n">
-        <v>7.45</v>
+        <v>7.24</v>
       </c>
       <c r="I75" t="n">
         <v>1.05</v>
@@ -8675,10 +8675,10 @@
         <v>3.5</v>
       </c>
       <c r="M75" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="N75" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="O75" t="n">
         <v>1.38</v>
@@ -8764,13 +8764,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -8785,10 +8785,10 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -8797,10 +8797,10 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
@@ -8827,13 +8827,13 @@
         <v>2.76</v>
       </c>
       <c r="AA76" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AB76" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC76" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AD76" t="n">
         <v>0</v>
@@ -8874,13 +8874,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="G77" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H77" t="n">
-        <v>2.93</v>
+        <v>3.14</v>
       </c>
       <c r="I77" t="n">
         <v>1.08</v>
@@ -8895,10 +8895,10 @@
         <v>2.62</v>
       </c>
       <c r="M77" t="n">
-        <v>1.99</v>
+        <v>2.31</v>
       </c>
       <c r="N77" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="O77" t="n">
         <v>1.53</v>
@@ -8984,13 +8984,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="G78" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H78" t="n">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="I78" t="n">
         <v>1.02</v>
@@ -9005,10 +9005,10 @@
         <v>3.2</v>
       </c>
       <c r="M78" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="N78" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="O78" t="n">
         <v>1.41</v>
@@ -9094,13 +9094,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="G79" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H79" t="n">
-        <v>5.34</v>
+        <v>5.28</v>
       </c>
       <c r="I79" t="n">
         <v>1.09</v>
@@ -9115,10 +9115,10 @@
         <v>2.6</v>
       </c>
       <c r="M79" t="n">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="N79" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="O79" t="n">
         <v>1.53</v>
@@ -9204,13 +9204,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="G80" t="n">
         <v>3.3</v>
       </c>
       <c r="H80" t="n">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="I80" t="n">
         <v>1.07</v>
@@ -9225,10 +9225,10 @@
         <v>3</v>
       </c>
       <c r="M80" t="n">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="N80" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O80" t="n">
         <v>1.44</v>
@@ -9314,13 +9314,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G81" t="n">
-        <v>3.52</v>
+        <v>3.55</v>
       </c>
       <c r="H81" t="n">
-        <v>5.04</v>
+        <v>4.95</v>
       </c>
       <c r="I81" t="n">
         <v>1.08</v>
@@ -9335,10 +9335,10 @@
         <v>2.9</v>
       </c>
       <c r="M81" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="N81" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="O81" t="n">
         <v>1.44</v>
@@ -9424,13 +9424,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="G82" t="n">
-        <v>3.39</v>
+        <v>3.75</v>
       </c>
       <c r="H82" t="n">
-        <v>4.26</v>
+        <v>4.3</v>
       </c>
       <c r="I82" t="n">
         <v>1.04</v>
@@ -9445,10 +9445,10 @@
         <v>3.45</v>
       </c>
       <c r="M82" t="n">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="N82" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="O82" t="n">
         <v>1.44</v>
@@ -9534,13 +9534,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="G83" t="n">
-        <v>3.59</v>
+        <v>3.4</v>
       </c>
       <c r="H83" t="n">
-        <v>2.41</v>
+        <v>2.37</v>
       </c>
       <c r="I83" t="n">
         <v>1.02</v>
@@ -9558,7 +9558,7 @@
         <v>1.85</v>
       </c>
       <c r="N83" t="n">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="O83" t="n">
         <v>1.39</v>
@@ -9644,13 +9644,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.4</v>
+        <v>2.78</v>
       </c>
       <c r="G84" t="n">
-        <v>3.68</v>
+        <v>3.45</v>
       </c>
       <c r="H84" t="n">
-        <v>2.73</v>
+        <v>2.53</v>
       </c>
       <c r="I84" t="n">
         <v>1.05</v>
@@ -9665,10 +9665,10 @@
         <v>3.92</v>
       </c>
       <c r="M84" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="N84" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="O84" t="n">
         <v>1.36</v>
@@ -9757,10 +9757,10 @@
         <v>1.49</v>
       </c>
       <c r="G85" t="n">
-        <v>4.54</v>
+        <v>4.4</v>
       </c>
       <c r="H85" t="n">
-        <v>6.63</v>
+        <v>6.39</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -9775,10 +9775,10 @@
         <v>3.72</v>
       </c>
       <c r="M85" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="N85" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="O85" t="n">
         <v>1.33</v>
@@ -9864,13 +9864,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4.41</v>
+        <v>4.79</v>
       </c>
       <c r="G86" t="n">
-        <v>3.91</v>
+        <v>4</v>
       </c>
       <c r="H86" t="n">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="I86" t="n">
         <v>1.02</v>
@@ -9885,10 +9885,10 @@
         <v>4.5</v>
       </c>
       <c r="M86" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="N86" t="n">
-        <v>2.08</v>
+        <v>2.23</v>
       </c>
       <c r="O86" t="n">
         <v>1.3</v>
@@ -9974,13 +9974,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="G87" t="n">
-        <v>3.69</v>
+        <v>3.55</v>
       </c>
       <c r="H87" t="n">
-        <v>3.3</v>
+        <v>3.68</v>
       </c>
       <c r="I87" t="n">
         <v>1.05</v>
@@ -9995,10 +9995,10 @@
         <v>3.4</v>
       </c>
       <c r="M87" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="N87" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="O87" t="n">
         <v>1.37</v>
@@ -10084,13 +10084,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="G88" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H88" t="n">
-        <v>3.33</v>
+        <v>3.65</v>
       </c>
       <c r="I88" t="n">
         <v>1.04</v>
@@ -10105,10 +10105,10 @@
         <v>4</v>
       </c>
       <c r="M88" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="N88" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="O88" t="n">
         <v>1.34</v>
@@ -10194,13 +10194,13 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="G89" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H89" t="n">
-        <v>2.89</v>
+        <v>2.81</v>
       </c>
       <c r="I89" t="n">
         <v>1.04</v>
@@ -10215,10 +10215,10 @@
         <v>4</v>
       </c>
       <c r="M89" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="N89" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="O89" t="n">
         <v>1.35</v>
@@ -10304,13 +10304,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3.6</v>
+        <v>3.83</v>
       </c>
       <c r="G90" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H90" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="I90" t="n">
         <v>1.07</v>
@@ -10325,10 +10325,10 @@
         <v>3</v>
       </c>
       <c r="M90" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="N90" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O90" t="n">
         <v>1.46</v>
@@ -10414,13 +10414,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G91" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H91" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="I91" t="n">
         <v>1.03</v>
@@ -10527,10 +10527,10 @@
         <v>1.83</v>
       </c>
       <c r="G92" t="n">
-        <v>3.89</v>
+        <v>3.65</v>
       </c>
       <c r="H92" t="n">
-        <v>3.71</v>
+        <v>3.64</v>
       </c>
       <c r="I92" t="n">
         <v>1.03</v>
@@ -10545,10 +10545,10 @@
         <v>4.33</v>
       </c>
       <c r="M92" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="N92" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="O92" t="n">
         <v>1.29</v>
@@ -10634,13 +10634,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.77</v>
+        <v>1.94</v>
       </c>
       <c r="G93" t="n">
-        <v>3.16</v>
+        <v>3.28</v>
       </c>
       <c r="H93" t="n">
-        <v>3.74</v>
+        <v>4.28</v>
       </c>
       <c r="I93" t="n">
         <v>1.08</v>
@@ -10649,16 +10649,16 @@
         <v>8.25</v>
       </c>
       <c r="K93" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="L93" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M93" t="n">
         <v>2.45</v>
       </c>
       <c r="N93" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="O93" t="n">
         <v>1.52</v>
@@ -10744,13 +10744,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H94" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="I94" t="n">
         <v>1.07</v>
@@ -10765,10 +10765,10 @@
         <v>3.1</v>
       </c>
       <c r="M94" t="n">
-        <v>2.4</v>
+        <v>2.07</v>
       </c>
       <c r="N94" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="O94" t="n">
         <v>1.41</v>
@@ -10854,13 +10854,13 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="G95" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I95" t="n">
         <v>1.1</v>
@@ -10875,10 +10875,10 @@
         <v>2.28</v>
       </c>
       <c r="M95" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="N95" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="O95" t="n">
         <v>1.57</v>
@@ -10964,13 +10964,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>7.98</v>
+        <v>6.19</v>
       </c>
       <c r="G96" t="n">
-        <v>4.45</v>
+        <v>3.9</v>
       </c>
       <c r="H96" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="I96" t="n">
         <v>1.03</v>
@@ -10985,10 +10985,10 @@
         <v>2.94</v>
       </c>
       <c r="M96" t="n">
-        <v>1.84</v>
+        <v>2.16</v>
       </c>
       <c r="N96" t="n">
-        <v>1.96</v>
+        <v>1.65</v>
       </c>
       <c r="O96" t="n">
         <v>1.44</v>
@@ -11074,52 +11074,52 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="G97" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H97" t="n">
-        <v>3.8</v>
+        <v>3.99</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="M97" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="N97" t="n">
-        <v>2.35</v>
+        <v>2.12</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="Q97" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S97" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U97" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V97" t="n">
         <v>2.07</v>
@@ -11184,13 +11184,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3.41</v>
+        <v>3.23</v>
       </c>
       <c r="G98" t="n">
-        <v>3.71</v>
+        <v>3.6</v>
       </c>
       <c r="H98" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="I98" t="n">
         <v>1.02</v>
@@ -11205,10 +11205,10 @@
         <v>4.7</v>
       </c>
       <c r="M98" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="N98" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O98" t="n">
         <v>1.28</v>
@@ -11294,13 +11294,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="G99" t="n">
-        <v>3.69</v>
+        <v>3.7</v>
       </c>
       <c r="H99" t="n">
-        <v>3.46</v>
+        <v>3.49</v>
       </c>
       <c r="I99" t="n">
         <v>1.04</v>
@@ -11315,10 +11315,10 @@
         <v>3.9</v>
       </c>
       <c r="M99" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="N99" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O99" t="n">
         <v>1.33</v>
@@ -11404,13 +11404,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="G100" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H100" t="n">
-        <v>3.58</v>
+        <v>3.2</v>
       </c>
       <c r="I100" t="n">
         <v>1.1</v>
@@ -11425,10 +11425,10 @@
         <v>2.38</v>
       </c>
       <c r="M100" t="n">
-        <v>2.75</v>
+        <v>2.47</v>
       </c>
       <c r="N100" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="O100" t="n">
         <v>1.57</v>
@@ -11514,13 +11514,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G101" t="n">
-        <v>3.47</v>
+        <v>3.3</v>
       </c>
       <c r="H101" t="n">
-        <v>4.2</v>
+        <v>3.46</v>
       </c>
       <c r="I101" t="n">
         <v>1.06</v>
@@ -11535,10 +11535,10 @@
         <v>2.95</v>
       </c>
       <c r="M101" t="n">
-        <v>2.09</v>
+        <v>2.02</v>
       </c>
       <c r="N101" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="O101" t="n">
         <v>1.41</v>
@@ -11624,13 +11624,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>6.85</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>5.24</v>
+        <v>5.5</v>
       </c>
       <c r="H102" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="I102" t="n">
         <v>1.01</v>
@@ -11645,7 +11645,7 @@
         <v>5.78</v>
       </c>
       <c r="M102" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="N102" t="n">
         <v>2.63</v>
@@ -11734,13 +11734,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="G103" t="n">
-        <v>3.5</v>
+        <v>4.35</v>
       </c>
       <c r="H103" t="n">
-        <v>3.9</v>
+        <v>4.86</v>
       </c>
       <c r="I103" t="n">
         <v>1.03</v>
@@ -11755,10 +11755,10 @@
         <v>4.33</v>
       </c>
       <c r="M103" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="N103" t="n">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="O103" t="n">
         <v>1.3</v>
@@ -11844,13 +11844,13 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="G104" t="n">
-        <v>5.42</v>
+        <v>6.6</v>
       </c>
       <c r="H104" t="n">
-        <v>6.76</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="I104" t="n">
         <v>1.01</v>
@@ -11865,10 +11865,10 @@
         <v>6.5</v>
       </c>
       <c r="M104" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="N104" t="n">
-        <v>2.73</v>
+        <v>2.94</v>
       </c>
       <c r="O104" t="n">
         <v>1.24</v>
@@ -11954,13 +11954,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="G105" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H105" t="n">
-        <v>2.88</v>
+        <v>3.49</v>
       </c>
       <c r="I105" t="n">
         <v>1.06</v>
@@ -11975,10 +11975,10 @@
         <v>3.2</v>
       </c>
       <c r="M105" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="N105" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="O105" t="n">
         <v>1.36</v>
@@ -12064,10 +12064,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>4</v>
+        <v>4.16</v>
       </c>
       <c r="G106" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H106" t="n">
         <v>1.73</v>
@@ -12085,10 +12085,10 @@
         <v>4.33</v>
       </c>
       <c r="M106" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="N106" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="O106" t="n">
         <v>1.32</v>
@@ -12174,13 +12174,13 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3.02</v>
+        <v>2.81</v>
       </c>
       <c r="G107" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H107" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="I107" t="n">
         <v>1.04</v>
@@ -12195,10 +12195,10 @@
         <v>3.75</v>
       </c>
       <c r="M107" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="N107" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="O107" t="n">
         <v>1.38</v>
@@ -12284,13 +12284,13 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="G108" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H108" t="n">
-        <v>2.99</v>
+        <v>3.21</v>
       </c>
       <c r="I108" t="n">
         <v>1.05</v>
@@ -12305,10 +12305,10 @@
         <v>3.6</v>
       </c>
       <c r="M108" t="n">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="N108" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="O108" t="n">
         <v>1.36</v>
@@ -12394,13 +12394,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="G109" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H109" t="n">
-        <v>3.3</v>
+        <v>3.41</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -12415,10 +12415,10 @@
         <v>0</v>
       </c>
       <c r="M109" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="N109" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -12504,13 +12504,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="G110" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H110" t="n">
-        <v>7.42</v>
+        <v>6.89</v>
       </c>
       <c r="I110" t="n">
         <v>1.01</v>
@@ -12525,10 +12525,10 @@
         <v>5.25</v>
       </c>
       <c r="M110" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="N110" t="n">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="O110" t="n">
         <v>1.25</v>
@@ -12614,13 +12614,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2.74</v>
+        <v>2.87</v>
       </c>
       <c r="G111" t="n">
-        <v>3.03</v>
+        <v>2.95</v>
       </c>
       <c r="H111" t="n">
-        <v>2.66</v>
+        <v>2.45</v>
       </c>
       <c r="I111" t="n">
         <v>1.06</v>
@@ -12635,7 +12635,7 @@
         <v>2.48</v>
       </c>
       <c r="M111" t="n">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="N111" t="n">
         <v>1.53</v>
@@ -12724,13 +12724,13 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="G112" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="H112" t="n">
-        <v>8.800000000000001</v>
+        <v>8.67</v>
       </c>
       <c r="I112" t="n">
         <v>1.02</v>
@@ -12745,10 +12745,10 @@
         <v>5.2</v>
       </c>
       <c r="M112" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="N112" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O112" t="n">
         <v>1.25</v>
@@ -12796,10 +12796,10 @@
         <v>6.45</v>
       </c>
       <c r="AD112" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE112" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF112" t="n">
         <v>1.88</v>
@@ -12834,13 +12834,13 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="G113" t="n">
-        <v>3.45</v>
+        <v>3.54</v>
       </c>
       <c r="H113" t="n">
-        <v>3.15</v>
+        <v>3.36</v>
       </c>
       <c r="I113" t="n">
         <v>1.06</v>
@@ -12855,10 +12855,10 @@
         <v>3.2</v>
       </c>
       <c r="M113" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="N113" t="n">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="O113" t="n">
         <v>1.4</v>
@@ -12944,13 +12944,13 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>3.45</v>
+        <v>3.34</v>
       </c>
       <c r="G114" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H114" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
         <v>1.03</v>
@@ -12965,10 +12965,10 @@
         <v>3.4</v>
       </c>
       <c r="M114" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="N114" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O114" t="n">
         <v>1.36</v>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="G115" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H115" t="n">
         <v>3.6</v>
@@ -13075,10 +13075,10 @@
         <v>3.5</v>
       </c>
       <c r="M115" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="N115" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="O115" t="n">
         <v>1.35</v>
@@ -13164,13 +13164,13 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="G116" t="n">
-        <v>3.81</v>
+        <v>3.9</v>
       </c>
       <c r="H116" t="n">
-        <v>6.48</v>
+        <v>6.11</v>
       </c>
       <c r="I116" t="n">
         <v>1.06</v>
@@ -13185,10 +13185,10 @@
         <v>3.2</v>
       </c>
       <c r="M116" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="N116" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O116" t="n">
         <v>1.44</v>
@@ -13274,13 +13274,13 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G117" t="n">
-        <v>3.56</v>
+        <v>3.6</v>
       </c>
       <c r="H117" t="n">
-        <v>3.14</v>
+        <v>2.85</v>
       </c>
       <c r="I117" t="n">
         <v>1.01</v>
@@ -13295,10 +13295,10 @@
         <v>3.65</v>
       </c>
       <c r="M117" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="N117" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="O117" t="n">
         <v>1.36</v>
@@ -13384,13 +13384,13 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2.59</v>
+        <v>2.15</v>
       </c>
       <c r="G118" t="n">
-        <v>3.03</v>
+        <v>3.25</v>
       </c>
       <c r="H118" t="n">
-        <v>2.91</v>
+        <v>3.2</v>
       </c>
       <c r="I118" t="n">
         <v>1.07</v>
@@ -13405,10 +13405,10 @@
         <v>2.87</v>
       </c>
       <c r="M118" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="N118" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="O118" t="n">
         <v>1.42</v>
@@ -13494,13 +13494,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>5.09</v>
+        <v>5.08</v>
       </c>
       <c r="G119" t="n">
-        <v>4.14</v>
+        <v>3.85</v>
       </c>
       <c r="H119" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="I119" t="n">
         <v>1.03</v>
@@ -13515,10 +13515,10 @@
         <v>4.1</v>
       </c>
       <c r="M119" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="N119" t="n">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="O119" t="n">
         <v>1.36</v>
@@ -13604,13 +13604,13 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -13625,10 +13625,10 @@
         <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O120" t="n">
         <v>0</v>
@@ -13637,10 +13637,10 @@
         <v>0</v>
       </c>
       <c r="Q120" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="R120" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S120" t="n">
         <v>0</v>
@@ -13667,13 +13667,13 @@
         <v>3.27</v>
       </c>
       <c r="AA120" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AB120" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC120" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AD120" t="n">
         <v>0</v>
@@ -13714,13 +13714,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>5.51</v>
+        <v>4.74</v>
       </c>
       <c r="G121" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="H121" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -13735,10 +13735,10 @@
         <v>3.74</v>
       </c>
       <c r="M121" t="n">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="N121" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="O121" t="n">
         <v>1.32</v>
@@ -13824,13 +13824,13 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>4.49</v>
+        <v>3.9</v>
       </c>
       <c r="G122" t="n">
-        <v>3.79</v>
+        <v>3.5</v>
       </c>
       <c r="H122" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="I122" t="n">
         <v>1.05</v>
@@ -13845,10 +13845,10 @@
         <v>3.3</v>
       </c>
       <c r="M122" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="N122" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="O122" t="n">
         <v>1.4</v>
@@ -13934,13 +13934,13 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3.2</v>
+        <v>3.17</v>
       </c>
       <c r="G123" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H123" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="I123" t="n">
         <v>1.07</v>
@@ -13955,10 +13955,10 @@
         <v>2.95</v>
       </c>
       <c r="M123" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="N123" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="O123" t="n">
         <v>1.42</v>
@@ -14157,10 +14157,10 @@
         <v>1.22</v>
       </c>
       <c r="G125" t="n">
-        <v>6.09</v>
+        <v>6.4</v>
       </c>
       <c r="H125" t="n">
-        <v>12.49</v>
+        <v>12.65</v>
       </c>
       <c r="I125" t="n">
         <v>1.01</v>
@@ -14175,10 +14175,10 @@
         <v>5.3</v>
       </c>
       <c r="M125" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="N125" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="O125" t="n">
         <v>1.29</v>
@@ -14264,13 +14264,13 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="G126" t="n">
-        <v>3.43</v>
+        <v>3.15</v>
       </c>
       <c r="H126" t="n">
-        <v>6.35</v>
+        <v>5.47</v>
       </c>
       <c r="I126" t="n">
         <v>1.1</v>
@@ -14285,10 +14285,10 @@
         <v>2.4</v>
       </c>
       <c r="M126" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="N126" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O126" t="n">
         <v>1.55</v>
@@ -14374,13 +14374,13 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2.63</v>
+        <v>2.53</v>
       </c>
       <c r="G127" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="H127" t="n">
-        <v>3.05</v>
+        <v>2.89</v>
       </c>
       <c r="I127" t="n">
         <v>1.05</v>
@@ -14395,10 +14395,10 @@
         <v>2.9</v>
       </c>
       <c r="M127" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="N127" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="O127" t="n">
         <v>1.5</v>
@@ -14484,13 +14484,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="G128" t="n">
-        <v>4.71</v>
+        <v>5.4</v>
       </c>
       <c r="H128" t="n">
-        <v>8.25</v>
+        <v>9.56</v>
       </c>
       <c r="I128" t="n">
         <v>1.01</v>
@@ -14505,10 +14505,10 @@
         <v>4.5</v>
       </c>
       <c r="M128" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="N128" t="n">
-        <v>2.14</v>
+        <v>2.19</v>
       </c>
       <c r="O128" t="n">
         <v>1.3</v>
@@ -14594,13 +14594,13 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="G129" t="n">
-        <v>3.63</v>
+        <v>3.55</v>
       </c>
       <c r="H129" t="n">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="I129" t="n">
         <v>1.04</v>
@@ -14615,10 +14615,10 @@
         <v>3.6</v>
       </c>
       <c r="M129" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="N129" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="O129" t="n">
         <v>1.34</v>
@@ -14704,13 +14704,13 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="G130" t="n">
-        <v>5.12</v>
+        <v>5.15</v>
       </c>
       <c r="H130" t="n">
-        <v>7.7</v>
+        <v>7.14</v>
       </c>
       <c r="I130" t="n">
         <v>1.01</v>
@@ -14725,10 +14725,10 @@
         <v>4.7</v>
       </c>
       <c r="M130" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="N130" t="n">
-        <v>2.15</v>
+        <v>2.39</v>
       </c>
       <c r="O130" t="n">
         <v>1.28</v>
@@ -15034,13 +15034,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G133" t="n">
-        <v>4.7</v>
+        <v>5.05</v>
       </c>
       <c r="H133" t="n">
-        <v>6.4</v>
+        <v>5.47</v>
       </c>
       <c r="I133" t="n">
         <v>1.01</v>
@@ -15058,7 +15058,7 @@
         <v>1.33</v>
       </c>
       <c r="N133" t="n">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="O133" t="n">
         <v>1.22</v>
@@ -15144,13 +15144,13 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="G134" t="n">
-        <v>9.279999999999999</v>
+        <v>9</v>
       </c>
       <c r="H134" t="n">
-        <v>20.31</v>
+        <v>18.87</v>
       </c>
       <c r="I134" t="n">
         <v>1.01</v>
@@ -15165,10 +15165,10 @@
         <v>7</v>
       </c>
       <c r="M134" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="N134" t="n">
-        <v>2.76</v>
+        <v>3.71</v>
       </c>
       <c r="O134" t="n">
         <v>1.16</v>
@@ -15254,10 +15254,10 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G135" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H135" t="n">
         <v>3.25</v>
@@ -15275,10 +15275,10 @@
         <v>4.2</v>
       </c>
       <c r="M135" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="N135" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O135" t="n">
         <v>1.3</v>
@@ -15364,13 +15364,13 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G136" t="n">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="H136" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="I136" t="n">
         <v>1.05</v>
@@ -15385,10 +15385,10 @@
         <v>3.4</v>
       </c>
       <c r="M136" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="N136" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="O136" t="n">
         <v>1.37</v>
@@ -15474,13 +15474,13 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2.4</v>
+        <v>2.78</v>
       </c>
       <c r="G137" t="n">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="H137" t="n">
-        <v>2.98</v>
+        <v>2.43</v>
       </c>
       <c r="I137" t="n">
         <v>1.03</v>
@@ -15495,10 +15495,10 @@
         <v>3.8</v>
       </c>
       <c r="M137" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="N137" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="O137" t="n">
         <v>1.35</v>
@@ -15584,13 +15584,13 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2.53</v>
+        <v>2.82</v>
       </c>
       <c r="G138" t="n">
-        <v>3.57</v>
+        <v>3.6</v>
       </c>
       <c r="H138" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="I138" t="n">
         <v>1.03</v>
@@ -15605,10 +15605,10 @@
         <v>3.8</v>
       </c>
       <c r="M138" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="N138" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="O138" t="n">
         <v>1.33</v>
@@ -15694,13 +15694,13 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="G139" t="n">
-        <v>8.210000000000001</v>
+        <v>9</v>
       </c>
       <c r="H139" t="n">
-        <v>19.36</v>
+        <v>16.38</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -15715,10 +15715,10 @@
         <v>6.45</v>
       </c>
       <c r="M139" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="N139" t="n">
-        <v>2.83</v>
+        <v>3.47</v>
       </c>
       <c r="O139" t="n">
         <v>1.19</v>
@@ -15804,13 +15804,13 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="G140" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H140" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="I140" t="n">
         <v>1.03</v>
@@ -15825,10 +15825,10 @@
         <v>4.08</v>
       </c>
       <c r="M140" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="N140" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O140" t="n">
         <v>1.3</v>
@@ -15914,13 +15914,13 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="G141" t="n">
         <v>3.3</v>
       </c>
       <c r="H141" t="n">
-        <v>3.59</v>
+        <v>3.45</v>
       </c>
       <c r="I141" t="n">
         <v>1.06</v>
@@ -15935,10 +15935,10 @@
         <v>2.9</v>
       </c>
       <c r="M141" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="N141" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="O141" t="n">
         <v>1.44</v>
@@ -16024,13 +16024,13 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="G142" t="n">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="H142" t="n">
-        <v>3.5</v>
+        <v>3.36</v>
       </c>
       <c r="I142" t="n">
         <v>1.06</v>
@@ -16045,10 +16045,10 @@
         <v>3</v>
       </c>
       <c r="M142" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="N142" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="O142" t="n">
         <v>1.42</v>
@@ -16134,13 +16134,13 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="G143" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H143" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="I143" t="n">
         <v>1.09</v>
@@ -16152,13 +16152,13 @@
         <v>1.5</v>
       </c>
       <c r="L143" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="M143" t="n">
         <v>2.5</v>
       </c>
       <c r="N143" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="O143" t="n">
         <v>1.57</v>
@@ -16247,10 +16247,10 @@
         <v>1.2</v>
       </c>
       <c r="G144" t="n">
-        <v>7.02</v>
+        <v>7</v>
       </c>
       <c r="H144" t="n">
-        <v>15.86</v>
+        <v>12.69</v>
       </c>
       <c r="I144" t="n">
         <v>1.01</v>
@@ -16265,10 +16265,10 @@
         <v>6</v>
       </c>
       <c r="M144" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="N144" t="n">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="O144" t="n">
         <v>1.22</v>
@@ -16354,13 +16354,13 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="G145" t="n">
-        <v>3.59</v>
+        <v>3.5</v>
       </c>
       <c r="H145" t="n">
-        <v>4.87</v>
+        <v>4.55</v>
       </c>
       <c r="I145" t="n">
         <v>1.08</v>
@@ -16375,10 +16375,10 @@
         <v>2.87</v>
       </c>
       <c r="M145" t="n">
-        <v>2.04</v>
+        <v>2.21</v>
       </c>
       <c r="N145" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="O145" t="n">
         <v>1.44</v>
@@ -16464,37 +16464,37 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="G146" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H146" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="M146" t="n">
-        <v>2.28</v>
+        <v>2.35</v>
       </c>
       <c r="N146" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="O146" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P146" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="Q146" t="n">
         <v>2.2</v>
@@ -16503,13 +16503,13 @@
         <v>1.62</v>
       </c>
       <c r="S146" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="T146" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U146" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V146" t="n">
         <v>0</v>
@@ -16527,19 +16527,19 @@
         <v>0</v>
       </c>
       <c r="AA146" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="AB146" t="n">
-        <v>9.6</v>
+        <v>8.1</v>
       </c>
       <c r="AC146" t="n">
-        <v>2.58</v>
+        <v>2.86</v>
       </c>
       <c r="AD146" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE146" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF146" t="n">
         <v>1.91</v>
@@ -16548,7 +16548,7 @@
         <v>2</v>
       </c>
       <c r="AH146" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="147">
@@ -16574,25 +16574,25 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="G147" t="n">
-        <v>4.84</v>
+        <v>6</v>
       </c>
       <c r="H147" t="n">
-        <v>9.16</v>
+        <v>13</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M147" t="n">
         <v>1.75</v>
@@ -16601,10 +16601,10 @@
         <v>2.05</v>
       </c>
       <c r="O147" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P147" t="n">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="Q147" t="n">
         <v>2.05</v>
@@ -16613,13 +16613,13 @@
         <v>1.7</v>
       </c>
       <c r="S147" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T147" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U147" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="V147" t="n">
         <v>0</v>
@@ -16637,28 +16637,28 @@
         <v>0</v>
       </c>
       <c r="AA147" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AB147" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC147" t="n">
-        <v>4.72</v>
+        <v>4.24</v>
       </c>
       <c r="AD147" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AE147" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF147" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG147" t="n">
         <v>1.8</v>
       </c>
       <c r="AH147" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="148">
@@ -16684,13 +16684,13 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="G148" t="n">
-        <v>3.21</v>
+        <v>3.2</v>
       </c>
       <c r="H148" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="I148" t="n">
         <v>1.09</v>
@@ -16705,10 +16705,10 @@
         <v>2.86</v>
       </c>
       <c r="M148" t="n">
-        <v>2.19</v>
+        <v>2.27</v>
       </c>
       <c r="N148" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="O148" t="n">
         <v>1.5</v>
@@ -16794,13 +16794,13 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="G149" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H149" t="n">
-        <v>3.97</v>
+        <v>4.41</v>
       </c>
       <c r="I149" t="n">
         <v>1.08</v>
@@ -16815,10 +16815,10 @@
         <v>2.55</v>
       </c>
       <c r="M149" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="N149" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O149" t="n">
         <v>1.53</v>
@@ -16904,13 +16904,13 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
       <c r="G150" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H150" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="I150" t="n">
         <v>1.02</v>
@@ -16925,10 +16925,10 @@
         <v>5.25</v>
       </c>
       <c r="M150" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="N150" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="O150" t="n">
         <v>1.24</v>
@@ -17014,13 +17014,13 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="G151" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H151" t="n">
-        <v>2.75</v>
+        <v>2.66</v>
       </c>
       <c r="I151" t="n">
         <v>1.02</v>
@@ -17035,10 +17035,10 @@
         <v>5.5</v>
       </c>
       <c r="M151" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="N151" t="n">
-        <v>2.75</v>
+        <v>2.81</v>
       </c>
       <c r="O151" t="n">
         <v>1.22</v>
@@ -17124,13 +17124,13 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="G152" t="n">
-        <v>7.14</v>
+        <v>7</v>
       </c>
       <c r="H152" t="n">
-        <v>17.89</v>
+        <v>11.81</v>
       </c>
       <c r="I152" t="n">
         <v>1.02</v>
@@ -17145,10 +17145,10 @@
         <v>5.5</v>
       </c>
       <c r="M152" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="N152" t="n">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="O152" t="n">
         <v>1.25</v>
@@ -17347,10 +17347,10 @@
         <v>2.59</v>
       </c>
       <c r="G154" t="n">
-        <v>2.92</v>
+        <v>3.32</v>
       </c>
       <c r="H154" t="n">
-        <v>2.36</v>
+        <v>2.7</v>
       </c>
       <c r="I154" t="n">
         <v>1.02</v>
@@ -17365,10 +17365,10 @@
         <v>3.32</v>
       </c>
       <c r="M154" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="N154" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="O154" t="n">
         <v>1.4</v>
@@ -17454,13 +17454,13 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2.75</v>
+        <v>2.89</v>
       </c>
       <c r="G155" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="H155" t="n">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="I155" t="n">
         <v>1.03</v>
@@ -17475,10 +17475,10 @@
         <v>4.5</v>
       </c>
       <c r="M155" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="N155" t="n">
-        <v>2.23</v>
+        <v>2.19</v>
       </c>
       <c r="O155" t="n">
         <v>1.33</v>
@@ -17564,13 +17564,13 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>2.21</v>
+        <v>2.45</v>
       </c>
       <c r="G156" t="n">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="H156" t="n">
-        <v>2.79</v>
+        <v>2.83</v>
       </c>
       <c r="I156" t="n">
         <v>1.09</v>
@@ -17582,13 +17582,13 @@
         <v>1.5</v>
       </c>
       <c r="L156" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="M156" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="N156" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O156" t="n">
         <v>1.54</v>
@@ -17674,37 +17674,37 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="G157" t="n">
-        <v>3.45</v>
+        <v>3.78</v>
       </c>
       <c r="H157" t="n">
-        <v>5.4</v>
+        <v>5.55</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="K157" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="L157" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="M157" t="n">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="N157" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="O157" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P157" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q157" t="n">
         <v>2.1</v>
@@ -17713,13 +17713,13 @@
         <v>1.67</v>
       </c>
       <c r="S157" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="T157" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U157" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="V157" t="n">
         <v>0</v>
@@ -17737,28 +17737,28 @@
         <v>0</v>
       </c>
       <c r="AA157" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="AB157" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC157" t="n">
-        <v>4.14</v>
+        <v>3.64</v>
       </c>
       <c r="AD157" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE157" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF157" t="n">
         <v>2.1</v>
       </c>
       <c r="AG157" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AH157" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="158">
@@ -17784,13 +17784,13 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="G158" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H158" t="n">
-        <v>8.199999999999999</v>
+        <v>6.32</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -17805,10 +17805,10 @@
         <v>0</v>
       </c>
       <c r="M158" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="N158" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="O158" t="n">
         <v>0</v>
@@ -18007,10 +18007,10 @@
         <v>2.5</v>
       </c>
       <c r="G160" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H160" t="n">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="I160" t="n">
         <v>1.06</v>
@@ -18025,10 +18025,10 @@
         <v>3</v>
       </c>
       <c r="M160" t="n">
-        <v>2.12</v>
+        <v>2.03</v>
       </c>
       <c r="N160" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O160" t="n">
         <v>1.42</v>
